--- a/H1DR21/Released/BOM/H1DR21.xlsx
+++ b/H1DR21/Released/BOM/H1DR21.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hexabitz\H1DR2x-Hardware\H1DR20\Released\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hexabitz\H1DR2x-Hardware\H1DR21\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C08AD8-7546-4319-B221-28C7FF8A45E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9840A0EB-2114-4236-BF2E-6D01E72B24D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-1395" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="-2670" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H1DR2x" sheetId="1" r:id="rId1"/>
@@ -646,7 +646,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2349859</xdr:colOff>
+      <xdr:colOff>2353034</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>16192</xdr:rowOff>
     </xdr:to>
@@ -989,7 +989,7 @@
   <dimension ref="A2:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1154,39 +1154,39 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>71</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F12" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="F13" s="18">
         <v>1</v>
@@ -1194,39 +1194,39 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>71</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F14" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="F15" s="18">
         <v>1</v>
@@ -1484,19 +1484,19 @@
     <hyperlink ref="E27" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="E16" r:id="rId5" xr:uid="{01DF3B85-9108-476B-8AD5-F1F39BFC2F9F}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{9CD624AB-68FA-45A0-BDA6-CACF754DD34A}"/>
+    <hyperlink ref="E15" r:id="rId6" xr:uid="{9CD624AB-68FA-45A0-BDA6-CACF754DD34A}"/>
     <hyperlink ref="E17" r:id="rId7" xr:uid="{AE63E577-2AF8-4B24-A43D-F4255BA5FD41}"/>
     <hyperlink ref="E11" r:id="rId8" xr:uid="{0A412581-708B-4B43-BCE9-F288010C1F6C}"/>
     <hyperlink ref="E20" r:id="rId9" xr:uid="{301AE570-2045-4255-B607-FD75AE5DA7F8}"/>
     <hyperlink ref="E21" r:id="rId10" xr:uid="{AF654B3F-A2C7-4B2E-B564-D18FD2C0136B}"/>
     <hyperlink ref="E18" r:id="rId11" xr:uid="{D0D8A6B6-6D38-4B73-B861-AACA1609CEF8}"/>
     <hyperlink ref="E9" r:id="rId12" xr:uid="{48762FAB-6BA7-44F3-B66F-9D2208B135F2}"/>
-    <hyperlink ref="E12" r:id="rId13" xr:uid="{D2D372F9-DA4F-43C8-B46D-E866F10E6982}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{D2D372F9-DA4F-43C8-B46D-E866F10E6982}"/>
     <hyperlink ref="E22" r:id="rId14" xr:uid="{210F0672-2960-4E6B-9F1A-CB6064DAE39D}"/>
     <hyperlink ref="E23" r:id="rId15" xr:uid="{F4FAD961-1ACF-40F2-B70C-3F7C4560A218}"/>
     <hyperlink ref="E26" r:id="rId16" xr:uid="{108CA52F-E1BE-481F-8306-42369812FC59}"/>
-    <hyperlink ref="E14" r:id="rId17" xr:uid="{94479DC2-758C-4C6B-9C02-8B79D61B45C4}"/>
-    <hyperlink ref="E15" r:id="rId18" xr:uid="{FE3C6A19-88BB-49CF-86BD-CDCA57049680}"/>
+    <hyperlink ref="E12" r:id="rId17" xr:uid="{94479DC2-758C-4C6B-9C02-8B79D61B45C4}"/>
+    <hyperlink ref="E13" r:id="rId18" xr:uid="{FE3C6A19-88BB-49CF-86BD-CDCA57049680}"/>
     <hyperlink ref="E24" r:id="rId19" xr:uid="{D685364C-FE80-4A4E-A115-3EF73231E53A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/H1DR21/Released/BOM/H1DR21.xlsx
+++ b/H1DR21/Released/BOM/H1DR21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hexabitz\H1DR2x-Hardware\H1DR21\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9840A0EB-2114-4236-BF2E-6D01E72B24D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D1F134-F076-4073-8445-BB55CCBC5E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15480" yWindow="-2670" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,7 +646,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2353034</xdr:colOff>
+      <xdr:colOff>2349859</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>16192</xdr:rowOff>
     </xdr:to>
@@ -988,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1394,19 +1394,19 @@
     </row>
     <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="F24" s="18">
         <v>1</v>
@@ -1414,19 +1414,19 @@
     </row>
     <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="F25" s="18">
         <v>1</v>
@@ -1480,7 +1480,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E25" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E24" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="E27" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="E16" r:id="rId5" xr:uid="{01DF3B85-9108-476B-8AD5-F1F39BFC2F9F}"/>
@@ -1497,7 +1497,7 @@
     <hyperlink ref="E26" r:id="rId16" xr:uid="{108CA52F-E1BE-481F-8306-42369812FC59}"/>
     <hyperlink ref="E12" r:id="rId17" xr:uid="{94479DC2-758C-4C6B-9C02-8B79D61B45C4}"/>
     <hyperlink ref="E13" r:id="rId18" xr:uid="{FE3C6A19-88BB-49CF-86BD-CDCA57049680}"/>
-    <hyperlink ref="E24" r:id="rId19" xr:uid="{D685364C-FE80-4A4E-A115-3EF73231E53A}"/>
+    <hyperlink ref="E25" r:id="rId19" xr:uid="{D685364C-FE80-4A4E-A115-3EF73231E53A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId20"/>
